--- a/templates/项目信息试验模板.xlsx
+++ b/templates/项目信息试验模板.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15210\Detection_Works_New\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F886C7-DA53-45EB-A9AA-1842B4C4D274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7060"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="定点" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="100">
   <si>
     <t>采样点编号</t>
   </si>
@@ -36,9 +42,6 @@
     <t>日接触时间</t>
   </si>
   <si>
-    <t>检测项目</t>
-  </si>
-  <si>
     <t>采样数量/天</t>
   </si>
   <si>
@@ -295,19 +298,49 @@
   </si>
   <si>
     <t>个体5</t>
+  </si>
+  <si>
+    <t>检测室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有机检测员1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有机检测员2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苯|甲苯|二甲苯（全部异构体）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苯|二甲苯（全部异构体）|甲苯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测因素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测因素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有机检测员3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苯|甲苯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,345 +349,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -662,318 +387,33 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1231,308 +671,308 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="9.54545454545454" customWidth="1"/>
-    <col min="3" max="3" width="25.2727272727273" customWidth="1"/>
-    <col min="4" max="4" width="16.2727272727273" customWidth="1"/>
-    <col min="5" max="5" width="15.4545454545455" customWidth="1"/>
-    <col min="6" max="6" width="34.2727272727273" customWidth="1"/>
-    <col min="7" max="7" width="14.4545454545455" customWidth="1"/>
-    <col min="8" max="8" width="13.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="34.25" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E4" s="1">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="1">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="1">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="1">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="1">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="1">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E11" s="1">
         <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="1">
         <v>3</v>
@@ -1541,24 +981,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G12" s="1">
         <v>2</v>
@@ -1567,24 +1007,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" s="1">
         <v>3</v>
@@ -1593,24 +1033,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E14" s="1">
         <v>2</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" s="1">
         <v>2</v>
@@ -1619,24 +1059,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E15" s="1">
         <v>2</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -1645,24 +1085,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E16" s="1">
         <v>2</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" s="1">
         <v>3</v>
@@ -1671,24 +1111,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" s="1">
         <v>2</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G17" s="1">
         <v>2</v>
@@ -1697,24 +1137,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="1">
         <v>2</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18" s="1">
         <v>3</v>
@@ -1723,25 +1163,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="1">
-        <v>4</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G19" s="1">
         <v>3</v>
       </c>
@@ -1749,24 +1189,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E20" s="1">
         <v>4</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -1775,24 +1215,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E21" s="1">
         <v>4</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21" s="1">
         <v>3</v>
@@ -1801,24 +1241,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>9</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E22" s="1">
         <v>4</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G22" s="1">
         <v>3</v>
@@ -1827,24 +1267,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>9</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E23" s="1">
         <v>4</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
@@ -1853,24 +1293,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E24" s="1">
         <v>4</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G24" s="1">
         <v>3</v>
@@ -1879,24 +1319,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>9</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E25" s="1">
-        <v>4</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="G25" s="1">
         <v>9</v>
@@ -1905,24 +1345,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>10</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="E26" s="1">
         <v>4</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G26" s="1">
         <v>3</v>
@@ -1931,24 +1371,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>10</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1">
+        <v>4</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E27" s="1">
-        <v>4</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="G27" s="1">
         <v>15</v>
@@ -1957,24 +1397,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>10</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="E28" s="1">
         <v>4</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G28" s="1">
         <v>3</v>
@@ -1983,24 +1423,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>10</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="E29" s="1">
         <v>4</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G29" s="1">
         <v>3</v>
@@ -2009,24 +1449,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>10</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="E30" s="1">
         <v>4</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G30" s="1">
         <v>3</v>
@@ -2035,24 +1475,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>10</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="E31" s="1">
         <v>4</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G31" s="1">
         <v>9</v>
@@ -2061,24 +1501,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>11</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E32" s="1">
         <v>6</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G32" s="1">
         <v>3</v>
@@ -2087,24 +1527,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>11</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E33" s="1">
         <v>6</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G33" s="1">
         <v>1</v>
@@ -2113,24 +1553,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>11</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E34" s="1">
         <v>6</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G34" s="1">
         <v>3</v>
@@ -2139,24 +1579,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>11</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E35" s="1">
         <v>6</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G35" s="1">
         <v>3</v>
@@ -2165,25 +1605,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1">
+        <v>2</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="1">
-        <v>2</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="G36" s="1">
         <v>2</v>
       </c>
@@ -2191,24 +1631,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="E37" s="1">
         <v>2</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G37" s="1">
         <v>1</v>
@@ -2217,24 +1657,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>12</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="E38" s="1">
         <v>2</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G38" s="1">
         <v>3</v>
@@ -2243,25 +1683,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>13</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="1">
-        <v>2</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="G39" s="1">
         <v>2</v>
       </c>
@@ -2269,24 +1709,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>13</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E40" s="1">
         <v>2</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G40" s="1">
         <v>3</v>
@@ -2295,24 +1735,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>14</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E41" s="1">
         <v>4</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G41" s="1">
         <v>2</v>
@@ -2321,24 +1761,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>14</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E42" s="1">
         <v>4</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G42" s="1">
         <v>3</v>
@@ -2347,24 +1787,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>15</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="E43" s="1">
         <v>6</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G43" s="1">
         <v>3</v>
@@ -2373,24 +1813,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>15</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="E44" s="1">
         <v>6</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G44" s="1">
         <v>3</v>
@@ -2399,24 +1839,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>16</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="E45" s="1">
         <v>6</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G45" s="1">
         <v>3</v>
@@ -2425,24 +1865,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>16</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="E46" s="1">
         <v>6</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G46" s="1">
         <v>3</v>
@@ -2451,24 +1891,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>17</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="E47" s="1">
         <v>6</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G47" s="1">
         <v>3</v>
@@ -2477,24 +1917,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>17</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="E48" s="1">
         <v>6</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G48" s="1">
         <v>3</v>
@@ -2503,24 +1943,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>18</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="E49" s="1">
         <v>6</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G49" s="1">
         <v>3</v>
@@ -2529,24 +1969,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>18</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="E50" s="1">
         <v>6</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G50" s="1">
         <v>3</v>
@@ -2555,24 +1995,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>19</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="E51" s="1">
         <v>6</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G51" s="1">
         <v>3</v>
@@ -2581,24 +2021,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>19</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="E52" s="1">
         <v>6</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G52" s="1">
         <v>3</v>
@@ -2607,25 +2047,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>20</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1">
+        <v>2</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E53" s="1">
-        <v>2</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="G53" s="1">
         <v>3</v>
       </c>
@@ -2633,24 +2073,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>20</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="E54" s="1">
         <v>2</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G54" s="1">
         <v>15</v>
@@ -2659,24 +2099,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>20</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="E55" s="1">
         <v>2</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G55" s="1">
         <v>3</v>
@@ -2685,24 +2125,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>20</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="E56" s="1">
         <v>2</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G56" s="1">
         <v>3</v>
@@ -2711,24 +2151,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>20</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="E57" s="1">
         <v>2</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G57" s="1">
         <v>3</v>
@@ -2737,24 +2177,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>20</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="E58" s="1">
         <v>2</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G58" s="1">
         <v>18</v>
@@ -2763,24 +2203,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>20</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="E59" s="1">
         <v>2</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G59" s="1">
         <v>3</v>
@@ -2789,25 +2229,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>21</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1">
+        <v>2</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E60" s="1">
-        <v>2</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="G60" s="1">
         <v>3</v>
       </c>
@@ -2815,24 +2255,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>21</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="E61" s="1">
         <v>2</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G61" s="1">
         <v>3</v>
@@ -2841,24 +2281,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>22</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="E62" s="1">
         <v>6</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G62" s="1">
         <v>3</v>
@@ -2867,24 +2307,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>22</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="E63" s="1">
         <v>6</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G63" s="1">
         <v>3</v>
@@ -2893,24 +2333,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>22</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="E64" s="1">
         <v>6</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G64" s="1">
         <v>3</v>
@@ -2919,24 +2359,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>22</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="E65" s="1">
         <v>6</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G65" s="1">
         <v>3</v>
@@ -2945,25 +2385,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>23</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E66" s="1">
-        <v>1</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="G66" s="1">
         <v>2</v>
       </c>
@@ -2971,24 +2411,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>24</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="E67" s="1">
         <v>4</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G67" s="1">
         <v>3</v>
@@ -2997,24 +2437,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>24</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="E68" s="1">
         <v>4</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G68" s="1">
         <v>9</v>
@@ -3023,24 +2463,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>25</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="E69" s="1">
         <v>4</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G69" s="1">
         <v>3</v>
@@ -3049,24 +2489,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>25</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="E70" s="1">
         <v>4</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G70" s="1">
         <v>1</v>
@@ -3075,24 +2515,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>25</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="E71" s="1">
         <v>4</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G71" s="1">
         <v>3</v>
@@ -3101,24 +2541,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>26</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="E72" s="1">
         <v>4</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G72" s="1">
         <v>3</v>
@@ -3127,24 +2567,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>26</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="E73" s="1">
         <v>4</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G73" s="1">
         <v>3</v>
@@ -3153,24 +2593,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>27</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="E74" s="1">
         <v>6</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G74" s="1">
         <v>3</v>
@@ -3179,24 +2619,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>27</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C75" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="E75" s="1">
         <v>6</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G75" s="1">
         <v>3</v>
@@ -3205,36 +2645,111 @@
         <v>1</v>
       </c>
     </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A76" s="1">
+        <v>28</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E76" s="1">
+        <v>4</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G76" s="1">
+        <v>3</v>
+      </c>
+      <c r="H76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A77" s="1">
+        <v>29</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E77" s="1">
+        <v>4</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G77" s="1">
+        <v>3</v>
+      </c>
+      <c r="H77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A78" s="1">
+        <v>30</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E78" s="1">
+        <v>4</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G78" s="1">
+        <v>3</v>
+      </c>
+      <c r="H78">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H75">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:H75" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.9090909090909" customWidth="1"/>
-    <col min="2" max="2" width="10.6363636363636" customWidth="1"/>
-    <col min="3" max="3" width="11.8181818181818" customWidth="1"/>
-    <col min="4" max="4" width="17.3636363636364" customWidth="1"/>
-    <col min="5" max="5" width="20.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="19.6363636363636" customWidth="1"/>
-    <col min="7" max="7" width="13.8181818181818" customWidth="1"/>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3247,31 +2762,31 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="D2" s="1">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -3280,44 +2795,44 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="D3" s="1">
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="D4" s="1">
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -3326,182 +2841,182 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="1">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="1">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="1">
-        <v>4</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="1">
-        <v>4</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1">
         <v>4</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -3511,10 +3026,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G12">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:G12" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/templates/项目信息试验模板.xlsx
+++ b/templates/项目信息试验模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15210\Detection_Works_New\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F886C7-DA53-45EB-A9AA-1842B4C4D274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97461C05-0F83-48AA-A55F-9E8843F97941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="定点" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="102">
   <si>
     <t>采样点编号</t>
   </si>
@@ -334,6 +334,13 @@
   <si>
     <t>苯|甲苯</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有机检测员4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲苯|二甲苯（全部异构体）</t>
   </si>
 </sst>
 </file>
@@ -677,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2723,6 +2730,32 @@
         <v>3</v>
       </c>
     </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A79" s="1">
+        <v>31</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E79" s="1">
+        <v>4</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G79" s="1">
+        <v>3</v>
+      </c>
+      <c r="H79">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H75" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2734,8 +2767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2792,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -2861,7 +2894,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -2907,7 +2940,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -2953,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -2999,7 +3032,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">

--- a/templates/项目信息试验模板.xlsx
+++ b/templates/项目信息试验模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15210\Detection_Works_New\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97461C05-0F83-48AA-A55F-9E8843F97941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E618FD53-8472-4CFB-BFD3-A7C6B4D54EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2768,7 +2768,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2825,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -2894,7 +2894,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -2940,7 +2940,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -2986,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -3032,7 +3032,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
